--- a/data/trans_dic/P23_3_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P23_3_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,12 +527,15 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que recibe menos o muchos menos elogios y reconocimientos de los que desea cuando hace bien su trabajo</t>
+          <t>Población que recibe menos o muchos menos elogios y reconocimientos de los que desea cuando hace bien su trabajo (tasa de respuesta: 98,76%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -542,20 +546,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +584,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -618,6 +640,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>4,46%</t>
+          <t>3,25%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>6,25%</t>
+          <t>10,05%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>7,6%</t>
+          <t>17,17%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>10,17%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>12,26%</t>
+          <t>4,78%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>8,77%</t>
+          <t>11,16%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>7,43%</t>
+          <t>8,5%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>9,24%</t>
+          <t>6,48%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>8,13%</t>
+          <t>4,1%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>10,64%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>12,92%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>3,31%</t>
         </is>
       </c>
     </row>
@@ -685,47 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,37; 13,33</t>
+          <t>0,0; 19,66</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,07; 14,91</t>
+          <t>2,48; 26,2</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,68; 18,1</t>
+          <t>6,08; 35,58</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>4,45; 19,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>5,17; 21,33</t>
+          <t>0,0; 14,53</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>3,4; 16,95</t>
+          <t>4,39; 24,69</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>3,49; 12,98</t>
+          <t>2,28; 20,64</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>5,15; 15,0</t>
+          <t>1,72; 17,62</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>4,52; 13,37</t>
+          <t>1,16; 11,8</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>5,09; 20,04</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>5,86; 23,05</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>0,82; 8,77</t>
         </is>
       </c>
     </row>
@@ -742,47 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>16,51%</t>
+          <t>13,2%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>18,39%</t>
+          <t>28,39%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>13,33%</t>
+          <t>9,46%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>19,94%</t>
+          <t>9,97%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>16,37%</t>
+          <t>27,02%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>13,01%</t>
+          <t>15,71%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>18,3%</t>
+          <t>10,08%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>17,39%</t>
+          <t>18,23%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>13,18%</t>
+          <t>19,97%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>22,44%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>9,74%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>13,41%</t>
         </is>
       </c>
     </row>
@@ -795,47 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>8,82; 26,41</t>
+          <t>5,06; 27,72</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>8,51; 42,83</t>
+          <t>11,17; 59,73</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>7,08; 23,81</t>
+          <t>2,94; 23,61</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>12,19; 29,33</t>
+          <t>3,48; 23,48</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>9,49; 25,73</t>
+          <t>16,85; 40,35</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>6,97; 20,59</t>
+          <t>6,9; 26,09</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>12,56; 25,3</t>
+          <t>4,34; 20,98</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>11,13; 28,52</t>
+          <t>8,75; 34,26</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>8,59; 19,53</t>
+          <t>11,5; 28,99</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>12,6; 40,02</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>4,76; 16,85</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>6,43; 21,91</t>
         </is>
       </c>
     </row>
@@ -852,47 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>26,75%</t>
+          <t>31,82%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>22,75%</t>
+          <t>23,41%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>26,12%</t>
+          <t>24,46%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>26,41%</t>
+          <t>29,45%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>19,69%</t>
+          <t>27,33%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>15,02%</t>
+          <t>22,57%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>26,57%</t>
+          <t>15,62%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>21,13%</t>
+          <t>15,21%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>20,46%</t>
+          <t>29,04%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>22,9%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>19,22%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>21,32%</t>
         </is>
       </c>
     </row>
@@ -905,47 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>17,58; 37,11</t>
+          <t>20,25; 44,04</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>14,15; 34,97</t>
+          <t>13,22; 36,16</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>16,41; 43,88</t>
+          <t>14,39; 37,13</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>19,61; 34,24</t>
+          <t>18,49; 42,78</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>13,64; 26,83</t>
+          <t>19,17; 36,81</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>9,91; 21,91</t>
+          <t>14,3; 31,81</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>20,66; 32,67</t>
+          <t>9,05; 23,57</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>16,15; 27,23</t>
+          <t>9,31; 22,72</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>14,8; 29,9</t>
+          <t>22,44; 37,27</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>16,94; 30,09</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>13,12; 26,06</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>15,69; 28,96</t>
         </is>
       </c>
     </row>
@@ -962,47 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>20,62%</t>
+          <t>19,12%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>15,58%</t>
+          <t>12,41%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>11,89%</t>
+          <t>6,68%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>27,48%</t>
+          <t>14,37%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>27,42%</t>
+          <t>31,02%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>26,82%</t>
+          <t>29,09%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>24,44%</t>
+          <t>31,67%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>22,07%</t>
+          <t>33,87%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>19,83%</t>
+          <t>25,6%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>21,36%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>19,79%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>24,49%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>14,02; 29,17</t>
+          <t>11,31; 29,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>10,08; 23,56</t>
+          <t>6,21; 21,06</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>7,08; 18,77</t>
+          <t>2,34; 13,66</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>20,58; 34,46</t>
+          <t>7,73; 23,61</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>20,83; 35,14</t>
+          <t>22,98; 40,4</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>20,21; 33,77</t>
+          <t>20,99; 38,54</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>19,69; 29,77</t>
+          <t>22,07; 40,29</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>17,77; 27,51</t>
+          <t>25,18; 43,8</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>15,95; 25,07</t>
+          <t>19,58; 32,57</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>16,1; 28,16</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>14,32; 25,95</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>18,93; 31,4</t>
         </is>
       </c>
     </row>
@@ -1072,47 +1217,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>14,82%</t>
+          <t>10,31%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>17,81%</t>
+          <t>15,09%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>12,93%</t>
+          <t>16,71%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>16,57%</t>
+          <t>13,26%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>19,73%</t>
+          <t>11,9%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>17,37%</t>
+          <t>22,9%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>15,67%</t>
+          <t>17,52%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>18,75%</t>
+          <t>28,63%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>15,11%</t>
+          <t>10,99%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>18,37%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>17,05%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>20,27%</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>8,99; 22,84</t>
+          <t>4,48; 20,67</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>10,74; 25,97</t>
+          <t>7,68; 26,63</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>7,06; 20,58</t>
+          <t>9,11; 28,04</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>10,31; 25,34</t>
+          <t>6,6; 23,7</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>13,14; 28,31</t>
+          <t>5,75; 23,99</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>10,47; 26,16</t>
+          <t>12,86; 36,8</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>11,52; 21,23</t>
+          <t>8,64; 34,2</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>14,04; 24,65</t>
+          <t>16,96; 43,57</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>10,67; 20,93</t>
+          <t>5,91; 17,45</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>11,9; 27,03</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>10,29; 25,34</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>13,28; 30,22</t>
         </is>
       </c>
     </row>
@@ -1182,47 +1357,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>10,58%</t>
+          <t>11,8%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>3,06%</t>
+          <t>3,24%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>8,91%</t>
+          <t>9,18%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>17,17%</t>
+          <t>20,64%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>14,67%</t>
+          <t>10,43%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>5,98%</t>
+          <t>13,57%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>14,34%</t>
+          <t>5,17%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>10,25%</t>
+          <t>25,19%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>7,15%</t>
+          <t>11,06%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>9,27%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>6,9%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>23,34%</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>4,64; 20,1</t>
+          <t>3,0; 26,92</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,6</t>
+          <t>0,0; 16,36</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>4,01; 19,85</t>
+          <t>2,59; 22,09</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>9,64; 29,48</t>
+          <t>9,2; 36,35</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>7,62; 24,65</t>
+          <t>2,65; 24,43</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>2,0; 13,75</t>
+          <t>4,9; 28,4</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>8,59; 22,23</t>
+          <t>0,0; 17,66</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>6,04; 16,56</t>
+          <t>12,73; 41,05</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>3,79; 12,7</t>
+          <t>4,24; 19,9</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>3,86; 18,96</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>2,5; 14,98</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>14,26; 35,27</t>
         </is>
       </c>
     </row>
@@ -1292,47 +1497,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>16,98%</t>
+          <t>16,01%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>15,16%</t>
+          <t>16,77%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>14,0%</t>
+          <t>13,92%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>20,88%</t>
+          <t>14,67%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>19,1%</t>
+          <t>21,38%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>14,93%</t>
+          <t>20,28%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>19,05%</t>
+          <t>15,9%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>17,24%</t>
+          <t>21,46%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>14,47%</t>
+          <t>18,89%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>18,63%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>14,94%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>18,14%</t>
         </is>
       </c>
     </row>
@@ -1345,64 +1565,1712 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>13,75; 20,41</t>
+          <t>11,94; 20,09</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>11,67; 20,04</t>
+          <t>12,4; 25,42</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>10,81; 18,85</t>
+          <t>10,15; 18,4</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>17,65; 24,41</t>
+          <t>10,84; 19,06</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>16,27; 22,36</t>
+          <t>17,98; 25,94</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>12,29; 18,17</t>
+          <t>16,68; 24,46</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>16,62; 21,51</t>
+          <t>12,63; 19,62</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>15,23; 19,99</t>
+          <t>16,93; 26,3</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>12,37; 17,1</t>
+          <t>16,09; 21,87</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>15,76; 23,17</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>12,33; 17,75</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>15,19; 21,15</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que recibe menos o muchos menos elogios y reconocimientos de los que desea cuando hace bien su trabajo (tasa de respuesta: 98,76%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>3482</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>10625</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>21904</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>6403</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>13400</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>10409</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>9431</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>9885</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>24026</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>32313</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>9431</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 21044</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>2622; 27695</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>7758; 45385</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 19468</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>5272; 29654</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>2788; 25284</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>2496; 25639</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>2800; 28429</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>11495; 45243</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>14666; 57642</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>2324; 24954</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>22267</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>40709</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>14266</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>22711</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>43857</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>19903</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>12731</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>29600</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>66124</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>60612</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>26996</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>52311</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>8540; 46775</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>16021; 85653</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>4436; 35615</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>7921; 53465</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>27349; 65490</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>8739; 33054</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>5477; 26503</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>14215; 55632</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>38063; 95952</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>34029; 108101</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>13184; 46687</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>25088; 85469</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>51571</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>31454</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>33663</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>53078</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>72170</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>47263</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>31320</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>36453</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>123741</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>78718</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>64983</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>89531</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>32819; 71362</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>17768; 48581</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>19800; 51109</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>33329; 77105</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>50612; 97199</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>29937; 66607</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>18140; 47255</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>22305; 54451</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>95604; 158822</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>58239; 103415</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>44372; 88125</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>65888; 121636</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>34840</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>19758</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>10432</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>28292</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>67730</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>53619</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>54618</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>72052</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>102570</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>73377</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>65050</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>100345</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>20614; 52857</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>9894; 33534</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>3651; 21341</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>15219; 46499</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>50188; 88230</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>38690; 71038</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>38056; 69486</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>53562; 93175</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>78436; 130495</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>55304; 96748</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>47059; 85286</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>77565; 128619</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>15577</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>18334</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>19701</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>19801</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>13551</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>20126</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>15130</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>35901</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>29128</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>38459</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>34830</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>55702</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>6771; 31225</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>9329; 32344</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>10741; 33062</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>9854; 35404</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>6546; 27327</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>11304; 32340</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>7466; 29537</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>21265; 54629</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>15669; 46255</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>24911; 56581</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>21026; 51760</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>36499; 83020</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>11924</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>2282</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>7551</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>24965</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>12212</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>13391</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>5609</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>44485</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>24136</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>15674</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>13159</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>69450</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>3028; 27202</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>0; 11511</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>2126; 18156</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>11124; 43970</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>3106; 28601</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>4836; 28028</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>0; 19151</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>22473; 72501</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>9252; 43405</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>6519; 32048</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>4772; 28560</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>42438; 104949</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>86.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>81.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>69.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>87.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>139.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>127.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>113.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>139.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>139661</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>123162</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>107516</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>148847</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>215923</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>167703</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>129817</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>227922</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>355584</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>290865</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>237333</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>376769</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>104172; 175218</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>91096; 186731</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>78385; 142131</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>109948; 193370</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>181516; 261961</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>137932; 202308</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>103127; 160182</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>179871; 279408</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>302716; 411530</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>246086; 361843</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>195979; 281995</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>315353; 439211</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>